--- a/데이터베이스_2차과제_스키마_김기호.xlsx
+++ b/데이터베이스_2차과제_스키마_김기호.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiho7\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5E8A49-0150-4EF8-B99B-60A385CD301D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E527A080-A4E6-4D83-B342-8EB625E22F0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5362424E-020A-474B-87A6-4621539C827D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="119">
   <si>
     <t>&lt;비행기&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -385,6 +385,130 @@
   </si>
   <si>
     <t>방콕공항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외래키(고객.이름)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외래키(티켓.티켓번호)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>둘 합쳐서 기본키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외래키(운행정보.항공기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>둘합쳐서 기본키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외래키(운행정보.운행항공기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외래키(파일럿.이름)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외래키(승무원.이름)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2- 1,2,3,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외래키(비행기.모델명)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외래키(공항.공항이름)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3- 3,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주항공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일본항공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김남열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이은지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c84938472</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정성은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가방2개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤지혜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이송호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d12345678</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남희창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조동근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤은경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안희진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김채연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,7 +582,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -472,6 +596,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -788,17 +915,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53B0DDB-ABFE-46AD-856C-B875E243B1AB}">
-  <dimension ref="A1:R42"/>
+  <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="O61" sqref="O61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11.3984375" customWidth="1"/>
     <col min="2" max="2" width="11.59765625" customWidth="1"/>
-    <col min="3" max="3" width="10.59765625" customWidth="1"/>
+    <col min="3" max="3" width="12.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="16.296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.8984375" customWidth="1"/>
     <col min="7" max="7" width="10.3984375" bestFit="1" customWidth="1"/>
@@ -857,10 +984,10 @@
         <v>13</v>
       </c>
       <c r="M4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>9</v>
@@ -893,7 +1020,7 @@
         <v>10</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>4</v>
@@ -902,10 +1029,10 @@
         <v>12</v>
       </c>
       <c r="M5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>11</v>
@@ -946,10 +1073,10 @@
         <v>3</v>
       </c>
       <c r="M6" t="s">
+        <v>66</v>
+      </c>
+      <c r="N6" t="s">
         <v>64</v>
-      </c>
-      <c r="N6" t="s">
-        <v>66</v>
       </c>
       <c r="O6" t="s">
         <v>68</v>
@@ -990,10 +1117,10 @@
         <v>4</v>
       </c>
       <c r="M7" t="s">
+        <v>67</v>
+      </c>
+      <c r="N7" t="s">
         <v>65</v>
-      </c>
-      <c r="N7" t="s">
-        <v>67</v>
       </c>
       <c r="O7" t="s">
         <v>68</v>
@@ -1008,424 +1135,994 @@
         <v>71</v>
       </c>
     </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8">
+        <v>20131112</v>
+      </c>
+      <c r="G8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="M8" t="s">
+        <v>109</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="O8" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8">
+        <v>24</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>69</v>
+      </c>
+      <c r="R8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9">
+        <v>20181234</v>
+      </c>
+      <c r="G9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="M9" t="s">
+        <v>114</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="O9" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9">
+        <v>21</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10">
+        <v>20201234</v>
+      </c>
+      <c r="G10" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11">
+        <v>20151234</v>
+      </c>
+      <c r="G11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+    </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="O16" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="O17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="P17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="O18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="P18" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A19">
         <v>20191234</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B19" t="s">
         <v>72</v>
       </c>
-      <c r="C15">
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" t="s">
+        <v>77</v>
+      </c>
+      <c r="K19" s="4">
+        <v>44169.590277777781</v>
+      </c>
+      <c r="L19" s="4">
+        <v>44170.565972222219</v>
+      </c>
+      <c r="O19" t="s">
+        <v>57</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>20181235</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" t="s">
+        <v>60</v>
+      </c>
+      <c r="J20" t="s">
+        <v>78</v>
+      </c>
+      <c r="K20" s="4">
+        <v>44162.625</v>
+      </c>
+      <c r="L20" s="4">
+        <v>44162.993634259263</v>
+      </c>
+      <c r="O20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>20195678</v>
+      </c>
+      <c r="B21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21" t="s">
+        <v>81</v>
+      </c>
+      <c r="J21" t="s">
+        <v>87</v>
+      </c>
+      <c r="K21" s="4">
+        <v>44180.541666666664</v>
+      </c>
+      <c r="L21" s="4">
+        <v>44180.708333333336</v>
+      </c>
+      <c r="O21" t="s">
+        <v>57</v>
+      </c>
+      <c r="P21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>20131234</v>
+      </c>
+      <c r="B22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" t="s">
+        <v>113</v>
+      </c>
+      <c r="H22" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" t="s">
+        <v>84</v>
+      </c>
+      <c r="J22" t="s">
+        <v>85</v>
+      </c>
+      <c r="K22" s="4">
+        <v>44180.375</v>
+      </c>
+      <c r="L22" s="4">
+        <v>44180.458333333336</v>
+      </c>
+      <c r="O22" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>20209876</v>
+      </c>
+      <c r="B23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>74</v>
+      </c>
+      <c r="O23" t="s">
+        <v>81</v>
+      </c>
+      <c r="P23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>20173203</v>
+      </c>
+      <c r="B24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="F29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="4">
+        <v>44180.375</v>
+      </c>
+      <c r="E31" s="4">
+        <v>44180.458333333336</v>
+      </c>
+      <c r="F31">
+        <f>HOUR(E31-D31)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="4">
+        <v>44180.541666666664</v>
+      </c>
+      <c r="E32" s="4">
+        <v>44180.708333333336</v>
+      </c>
+      <c r="F32">
+        <f>HOUR(E32-D32)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
         <v>55</v>
       </c>
-      <c r="I15" t="s">
+      <c r="B33" t="s">
         <v>57</v>
       </c>
-      <c r="J15" t="s">
+      <c r="C33" t="s">
         <v>77</v>
       </c>
-      <c r="K15" s="4">
+      <c r="D33" s="4">
         <v>44169.590277777781</v>
       </c>
-      <c r="L15" s="4">
+      <c r="E33" s="4">
         <v>44170.565972222219</v>
       </c>
-      <c r="O15" t="s">
-        <v>57</v>
-      </c>
-      <c r="P15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A16">
-        <v>20181234</v>
-      </c>
-      <c r="B16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16">
-        <v>22</v>
-      </c>
-      <c r="D16" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="F33">
+        <f>HOUR(E33-D33)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
         <v>58</v>
       </c>
-      <c r="I16" t="s">
+      <c r="B34" t="s">
         <v>60</v>
       </c>
-      <c r="J16" t="s">
+      <c r="C34" t="s">
         <v>78</v>
       </c>
-      <c r="K16" s="4">
+      <c r="D34" s="4">
         <v>44162.625</v>
       </c>
-      <c r="L16" s="4">
-        <v>44162.993634259263</v>
-      </c>
-      <c r="O16" t="s">
-        <v>60</v>
-      </c>
-      <c r="P16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="O17" t="s">
-        <v>81</v>
-      </c>
-      <c r="P17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A20" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="4">
-        <v>44159.375</v>
-      </c>
-      <c r="E23" s="4">
-        <v>44159.458333333336</v>
-      </c>
-      <c r="F23">
-        <f>HOUR(E23-D23)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>86</v>
-      </c>
-      <c r="B24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="4">
-        <v>44160.541666666664</v>
-      </c>
-      <c r="E24" s="4">
-        <v>44160.708333333336</v>
-      </c>
-      <c r="F24">
-        <f>HOUR(E24-D24)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A31" s="1" t="s">
+      <c r="E34" s="4">
+        <v>44162.993055555555</v>
+      </c>
+      <c r="F34">
+        <f>HOUR(E34-D34)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="E33" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="I33" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J33" s="1"/>
-      <c r="M33" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="I37" s="3"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A40" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="E40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="J40" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="I41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N41" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="J43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A44" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="E44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F44" t="s">
+        <v>55</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J44" t="s">
+        <v>92</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A45" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E45" t="s">
+        <v>67</v>
+      </c>
+      <c r="F45" t="s">
+        <v>58</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N45" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" t="s">
+        <v>109</v>
+      </c>
+      <c r="F46" t="s">
+        <v>86</v>
+      </c>
+      <c r="I46" t="s">
+        <v>66</v>
+      </c>
+      <c r="J46" t="s">
+        <v>55</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" t="s">
+        <v>65</v>
+      </c>
+      <c r="E47" t="s">
+        <v>114</v>
+      </c>
+      <c r="F47" t="s">
+        <v>83</v>
+      </c>
+      <c r="I47" t="s">
+        <v>67</v>
+      </c>
+      <c r="J47" t="s">
+        <v>58</v>
+      </c>
+      <c r="M47" t="s">
+        <v>79</v>
+      </c>
+      <c r="N47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="I48" t="s">
+        <v>109</v>
+      </c>
+      <c r="J48" t="s">
+        <v>86</v>
+      </c>
+      <c r="M48" t="s">
+        <v>80</v>
+      </c>
+      <c r="N48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="I49" t="s">
+        <v>114</v>
+      </c>
+      <c r="J49" t="s">
+        <v>83</v>
+      </c>
+      <c r="M49" t="s">
+        <v>82</v>
+      </c>
+      <c r="N49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="I50" s="3"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A53" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G53" s="1"/>
+      <c r="J53" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A54" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A55" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="1" t="s">
+      <c r="F55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J55" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="1" t="s">
+      <c r="K55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M55" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A56" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B56" t="s">
+        <v>90</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M56" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57" t="s">
+        <v>113</v>
+      </c>
+      <c r="E57" t="s">
+        <v>83</v>
+      </c>
+      <c r="F57" t="s">
+        <v>61</v>
+      </c>
+      <c r="G57" t="s">
+        <v>72</v>
+      </c>
+      <c r="J57" t="s">
+        <v>83</v>
+      </c>
+      <c r="K57" t="s">
+        <v>84</v>
+      </c>
+      <c r="L57" t="s">
+        <v>85</v>
+      </c>
+      <c r="M57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>86</v>
+      </c>
+      <c r="B58" t="s">
+        <v>108</v>
+      </c>
+      <c r="E58" t="s">
+        <v>86</v>
+      </c>
+      <c r="F58" t="s">
+        <v>63</v>
+      </c>
+      <c r="G58" t="s">
+        <v>75</v>
+      </c>
+      <c r="J58" t="s">
+        <v>86</v>
+      </c>
+      <c r="K58" t="s">
+        <v>81</v>
+      </c>
+      <c r="L58" t="s">
+        <v>87</v>
+      </c>
+      <c r="M58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59" t="s">
+        <v>64</v>
+      </c>
+      <c r="E59" t="s">
+        <v>55</v>
+      </c>
+      <c r="F59" t="s">
+        <v>106</v>
+      </c>
+      <c r="G59" t="s">
+        <v>111</v>
+      </c>
+      <c r="J59" t="s">
+        <v>55</v>
+      </c>
+      <c r="K59" t="s">
+        <v>57</v>
+      </c>
+      <c r="L59" t="s">
+        <v>77</v>
+      </c>
+      <c r="M59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>65</v>
+      </c>
+      <c r="E60" t="s">
+        <v>58</v>
+      </c>
+      <c r="F60" t="s">
+        <v>107</v>
+      </c>
+      <c r="G60" t="s">
+        <v>112</v>
+      </c>
+      <c r="J60" t="s">
+        <v>58</v>
+      </c>
+      <c r="K60" t="s">
+        <v>60</v>
+      </c>
+      <c r="L60" t="s">
+        <v>78</v>
+      </c>
+      <c r="M60" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
